--- a/resources/GSTR2/notes.xlsx
+++ b/resources/GSTR2/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GSTR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D05B1-534D-4EF8-87A6-DB7BFB20E9A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A69ED3-8795-42B3-89C5-B3E9FEB70D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>CNE</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>Newns</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
   <si>
     <t>Note_GSTR31</t>
@@ -697,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +717,7 @@
     <col min="15" max="15" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,46 +728,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>613</v>
       </c>
@@ -816,12 +810,8 @@
       <c r="O2" s="1">
         <v>12</v>
       </c>
-      <c r="P2" s="1">
-        <f>AVERAGE(D2:O2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>614</v>
       </c>
@@ -867,12 +857,8 @@
       <c r="O3" s="1">
         <v>12</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P48" si="0">AVERAGE(D3:O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>615</v>
       </c>
@@ -918,12 +904,8 @@
       <c r="O4" s="1">
         <v>12</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>616</v>
       </c>
@@ -969,12 +951,8 @@
       <c r="O5" s="1">
         <v>12</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>617</v>
       </c>
@@ -1020,12 +998,8 @@
       <c r="O6" s="1">
         <v>12</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>618</v>
       </c>
@@ -1071,12 +1045,8 @@
       <c r="O7" s="1">
         <v>12</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>619</v>
       </c>
@@ -1122,12 +1092,8 @@
       <c r="O8" s="1">
         <v>12</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>620</v>
       </c>
@@ -1173,12 +1139,8 @@
       <c r="O9" s="1">
         <v>12</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>621</v>
       </c>
@@ -1224,12 +1186,8 @@
       <c r="O10" s="1">
         <v>12</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>622</v>
       </c>
@@ -1275,12 +1233,8 @@
       <c r="O11" s="1">
         <v>12</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>623</v>
       </c>
@@ -1326,12 +1280,8 @@
       <c r="O12" s="1">
         <v>12</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>624</v>
       </c>
@@ -1377,12 +1327,8 @@
       <c r="O13" s="1">
         <v>12</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>625</v>
       </c>
@@ -1428,12 +1374,8 @@
       <c r="O14" s="1">
         <v>12</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>626</v>
       </c>
@@ -1479,12 +1421,8 @@
       <c r="O15" s="1">
         <v>12</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>627</v>
       </c>
@@ -1530,12 +1468,8 @@
       <c r="O16" s="1">
         <v>12</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>628</v>
       </c>
@@ -1581,12 +1515,8 @@
       <c r="O17" s="1">
         <v>12</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>629</v>
       </c>
@@ -1632,12 +1562,8 @@
       <c r="O18" s="1">
         <v>12</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>630</v>
       </c>
@@ -1683,12 +1609,8 @@
       <c r="O19" s="1">
         <v>12</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>631</v>
       </c>
@@ -1734,12 +1656,8 @@
       <c r="O20" s="1">
         <v>12</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>632</v>
       </c>
@@ -1785,12 +1703,8 @@
       <c r="O21" s="1">
         <v>12</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>633</v>
       </c>
@@ -1836,12 +1750,8 @@
       <c r="O22" s="1">
         <v>12</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>634</v>
       </c>
@@ -1887,12 +1797,8 @@
       <c r="O23" s="1">
         <v>12</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>635</v>
       </c>
@@ -1938,12 +1844,8 @@
       <c r="O24" s="1">
         <v>12</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>636</v>
       </c>
@@ -1989,12 +1891,8 @@
       <c r="O25" s="1">
         <v>12</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>637</v>
       </c>
@@ -2040,12 +1938,8 @@
       <c r="O26" s="1">
         <v>12</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>638</v>
       </c>
@@ -2091,12 +1985,8 @@
       <c r="O27" s="1">
         <v>12</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>639</v>
       </c>
@@ -2142,12 +2032,8 @@
       <c r="O28" s="1">
         <v>12</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>640</v>
       </c>
@@ -2193,12 +2079,8 @@
       <c r="O29" s="1">
         <v>12</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>641</v>
       </c>
@@ -2244,12 +2126,8 @@
       <c r="O30" s="1">
         <v>12</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>642</v>
       </c>
@@ -2295,12 +2173,8 @@
       <c r="O31" s="1">
         <v>12</v>
       </c>
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>643</v>
       </c>
@@ -2346,12 +2220,8 @@
       <c r="O32" s="1">
         <v>12</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>644</v>
       </c>
@@ -2397,12 +2267,8 @@
       <c r="O33" s="1">
         <v>12</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>645</v>
       </c>
@@ -2448,12 +2314,8 @@
       <c r="O34" s="1">
         <v>12</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>646</v>
       </c>
@@ -2499,12 +2361,8 @@
       <c r="O35" s="1">
         <v>12</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>647</v>
       </c>
@@ -2550,12 +2408,8 @@
       <c r="O36" s="1">
         <v>12</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>648</v>
       </c>
@@ -2601,12 +2455,8 @@
       <c r="O37" s="1">
         <v>12</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>649</v>
       </c>
@@ -2652,12 +2502,8 @@
       <c r="O38" s="1">
         <v>12</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>650</v>
       </c>
@@ -2703,12 +2549,8 @@
       <c r="O39" s="1">
         <v>12</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>651</v>
       </c>
@@ -2754,12 +2596,8 @@
       <c r="O40" s="1">
         <v>12</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>652</v>
       </c>
@@ -2805,12 +2643,8 @@
       <c r="O41" s="1">
         <v>12</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>653</v>
       </c>
@@ -2856,12 +2690,8 @@
       <c r="O42" s="1">
         <v>12</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>654</v>
       </c>
@@ -2907,12 +2737,8 @@
       <c r="O43" s="1">
         <v>12</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>655</v>
       </c>
@@ -2958,12 +2784,8 @@
       <c r="O44" s="1">
         <v>12</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>656</v>
       </c>
@@ -3009,12 +2831,8 @@
       <c r="O45" s="1">
         <v>12</v>
       </c>
-      <c r="P45" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>657</v>
       </c>
@@ -3060,12 +2878,8 @@
       <c r="O46" s="1">
         <v>12</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>658</v>
       </c>
@@ -3111,12 +2925,8 @@
       <c r="O47" s="1">
         <v>12</v>
       </c>
-      <c r="P47" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>659</v>
       </c>
@@ -3160,10 +2970,6 @@
         <v>12</v>
       </c>
       <c r="O48" s="1">
-        <v>12</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
